--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1207.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1207.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7213064284324932</v>
+        <v>1.168259620666504</v>
       </c>
       <c r="B1">
-        <v>1.345034532202803</v>
+        <v>2.280840158462524</v>
       </c>
       <c r="C1">
-        <v>4.829335755110939</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.168779347645851</v>
+        <v>2.326796054840088</v>
       </c>
       <c r="E1">
-        <v>1.555693009139082</v>
+        <v>1.232401013374329</v>
       </c>
     </row>
   </sheetData>
